--- a/data/trans_orig/Q4504-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4504-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{499CE58A-8AAD-4B2B-A375-7DFEDF8AE45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7201B66D-3033-4322-B43A-2A3ACD64572D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC752E93-BFFF-4D82-BC8D-7C2900447C86}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D50E4610-0F19-44E6-8D5C-E5BBC36FE365}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -3131,7 +3131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4C3EC9-7274-470A-B954-076D2535CF79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36025574-6F6A-4B44-B25C-532CC5DBEBD5}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4457,7 +4457,7 @@
         <v>3198</v>
       </c>
       <c r="N27" s="7">
-        <v>3275612</v>
+        <v>3275611</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>105</v>
@@ -5718,7 +5718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F632A23D-BEA3-4E9F-8DB1-4F6D098A718B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4AAAB7-5454-46B7-8E16-C39B3BDCC6E3}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8191,7 +8191,7 @@
         <v>923</v>
       </c>
       <c r="D50" s="7">
-        <v>996964</v>
+        <v>996965</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>645</v>
@@ -8242,7 +8242,7 @@
         <v>3194</v>
       </c>
       <c r="D51" s="7">
-        <v>3411056</v>
+        <v>3411057</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>105</v>
@@ -8305,7 +8305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7707D0AB-DCD4-477A-BE6E-0AB19F9D6509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DCF078-7C18-4ACC-AE61-61F35EF1F11D}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9172,7 +9172,7 @@
         <v>503</v>
       </c>
       <c r="N18" s="7">
-        <v>531928</v>
+        <v>531927</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>473</v>
@@ -9325,7 +9325,7 @@
         <v>263</v>
       </c>
       <c r="N21" s="7">
-        <v>277733</v>
+        <v>277732</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>667</v>
@@ -9580,7 +9580,7 @@
         <v>692</v>
       </c>
       <c r="N26" s="7">
-        <v>742049</v>
+        <v>742048</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>766</v>
@@ -9631,7 +9631,7 @@
         <v>3846</v>
       </c>
       <c r="N27" s="7">
-        <v>4049764</v>
+        <v>4049763</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>105</v>
@@ -10844,7 +10844,7 @@
         <v>3317</v>
       </c>
       <c r="I51" s="7">
-        <v>3521612</v>
+        <v>3521611</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>105</v>
